--- a/Übung2/Tabellen und Abbildungen.xlsx
+++ b/Übung2/Tabellen und Abbildungen.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/UMMO Master/2. Semester/Umweltinformationssysteme/Übung2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A2EB89-74C2-F340-965D-873237363755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A8C955-F8C4-E74F-8121-F17867818225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{0AFC04D8-3920-CE48-8CED-8D1E069CCB25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0AFC04D8-3920-CE48-8CED-8D1E069CCB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="15">
   <si>
     <t>Farbe</t>
   </si>
@@ -71,12 +71,24 @@
   <si>
     <t>orange</t>
   </si>
+  <si>
+    <t>Zeile</t>
+  </si>
+  <si>
+    <t>Zellen</t>
+  </si>
+  <si>
+    <t>Speicherbedarf:</t>
+  </si>
+  <si>
+    <t>organge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,8 +108,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,11 +262,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,8 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +349,80 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,391 +994,475 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A90615-D2AB-DF44-86D1-F111E71A263D}">
-  <dimension ref="C2:AN44"/>
+  <dimension ref="C2:AN118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
     <col min="4" max="19" width="4.83203125" customWidth="1"/>
+    <col min="21" max="23" width="10.83203125" style="27"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="6.6640625" customWidth="1"/>
+    <col min="34" max="34" width="2.5" customWidth="1"/>
+    <col min="35" max="38" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:22" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="20"/>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <f>U3+1</f>
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U42" si="0">U4+1</f>
+    <row r="2" spans="6:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="U2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="U3" s="27">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="6:34" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="18"/>
+      <c r="U4" s="27">
+        <v>0</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="U5" s="27">
+        <v>1</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="27">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+    </row>
+    <row r="6" spans="6:34" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="18"/>
+      <c r="U6" s="27">
+        <v>1</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="27">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+    </row>
+    <row r="7" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="16"/>
+      <c r="U7" s="27">
+        <v>2</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="27">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+    </row>
+    <row r="8" spans="6:34" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="24"/>
+      <c r="U8" s="27">
+        <v>2</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="27">
+        <v>8</v>
+      </c>
+      <c r="Z8">
         <v>3</v>
       </c>
-      <c r="V5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="15"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="20"/>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="18"/>
-      <c r="T7">
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+    </row>
+    <row r="9" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="U9" s="27">
+        <v>3</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="27">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="38"/>
+    </row>
+    <row r="10" spans="6:34" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="18"/>
+      <c r="U10" s="27">
+        <v>3</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="27">
+        <v>8</v>
+      </c>
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="26"/>
-      <c r="T8">
-        <v>5</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="40"/>
+    </row>
+    <row r="11" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="U11" s="43">
+        <v>4</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="43">
+        <v>2</v>
+      </c>
+      <c r="Z11">
         <v>6</v>
       </c>
-      <c r="V8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="V9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="23"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="20"/>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="V10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+    </row>
+    <row r="12" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="U12" s="43">
+        <v>4</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="43">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+    </row>
+    <row r="13" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="U13" s="43">
+        <v>4</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="U14" s="43">
+        <v>4</v>
+      </c>
+      <c r="V14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="V11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8"/>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="V13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I15" s="10"/>
+      <c r="W14" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="V15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="V16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:40" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="V17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="4:40" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="V18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19">
-        <f>SUM(T3:T18)</f>
-        <v>44</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="U15" s="43">
+        <v>4</v>
+      </c>
+      <c r="V15" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="6:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="U16" s="43">
+        <v>5</v>
+      </c>
+      <c r="V16" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="U17" s="43">
+        <v>5</v>
+      </c>
+      <c r="V17" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="43">
+        <v>5</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U19" s="43">
+        <v>5</v>
+      </c>
+      <c r="V19" s="46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="V20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="V21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="V22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="U23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="V23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="U24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="W19" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U20" s="43">
+        <v>5</v>
+      </c>
+      <c r="V20" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U21" s="43">
+        <v>6</v>
+      </c>
+      <c r="V21" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U22" s="43">
+        <v>6</v>
+      </c>
+      <c r="V22" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U23" s="43">
+        <v>6</v>
+      </c>
+      <c r="V23" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U24" s="43">
+        <v>6</v>
+      </c>
+      <c r="V24" s="46" t="s">
         <v>9</v>
+      </c>
+      <c r="W24" s="43">
+        <v>4</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -1282,7 +1481,10 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
     </row>
-    <row r="25" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1299,12 +1501,14 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
-      <c r="U25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="V25" t="s">
-        <v>10</v>
+      <c r="U25" s="43">
+        <v>6</v>
+      </c>
+      <c r="V25" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="43">
+        <v>4</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
@@ -1323,7 +1527,10 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
     </row>
-    <row r="26" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1340,12 +1547,14 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
-      <c r="U26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="V26" t="s">
-        <v>7</v>
+      <c r="U26" s="43">
+        <v>7</v>
+      </c>
+      <c r="V26" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="43">
+        <v>2</v>
       </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -1364,29 +1573,35 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
     </row>
-    <row r="27" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>C26+1</f>
+        <v>2</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="U27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="V27" t="s">
-        <v>10</v>
+      <c r="U27" s="43">
+        <v>7</v>
+      </c>
+      <c r="V27" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="27">
+        <v>4</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -1405,29 +1620,35 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
     </row>
-    <row r="28" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" ref="C28:C40" si="0">C27+1</f>
+        <v>3</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="U28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="V28" t="s">
-        <v>7</v>
+      <c r="U28" s="43">
+        <v>7</v>
+      </c>
+      <c r="V28" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="27">
+        <v>2</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -1446,7 +1667,11 @@
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
     </row>
-    <row r="29" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
@@ -1457,18 +1682,20 @@
       <c r="K29" s="7"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
-      <c r="U29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="U29" s="43">
+        <v>7</v>
+      </c>
+      <c r="V29" s="46" t="s">
         <v>9</v>
+      </c>
+      <c r="W29" s="27">
+        <v>4</v>
       </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -1487,7 +1714,11 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
     </row>
-    <row r="30" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -1498,18 +1729,20 @@
       <c r="K30" s="7"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
-      <c r="U30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="V30" t="s">
-        <v>10</v>
+      <c r="U30" s="43">
+        <v>7</v>
+      </c>
+      <c r="V30" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="27">
+        <v>4</v>
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -1528,28 +1761,34 @@
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
     </row>
-    <row r="31" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+    <row r="31" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="U31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="U31" s="27">
+        <v>8</v>
+      </c>
+      <c r="V31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="27">
         <v>8</v>
       </c>
       <c r="Y31" s="7"/>
@@ -1569,29 +1808,35 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>
     </row>
-    <row r="32" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+    <row r="32" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="U32" s="27">
+        <v>8</v>
+      </c>
+      <c r="V32" s="30" t="s">
         <v>9</v>
+      </c>
+      <c r="W32" s="27">
+        <v>6</v>
       </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -1610,7 +1855,11 @@
       <c r="AM32" s="8"/>
       <c r="AN32" s="8"/>
     </row>
-    <row r="33" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -1619,20 +1868,22 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="U33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="V33" t="s">
-        <v>10</v>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="U33" s="27">
+        <v>8</v>
+      </c>
+      <c r="V33" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="27">
+        <v>2</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -1651,7 +1902,11 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="8"/>
     </row>
-    <row r="34" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -1660,19 +1915,21 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="U34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="U34" s="27">
+        <v>9</v>
+      </c>
+      <c r="V34" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W34" s="27">
         <v>8</v>
       </c>
       <c r="Y34" s="10"/>
@@ -1692,7 +1949,11 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="10"/>
     </row>
-    <row r="35" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1705,16 +1966,18 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="U35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="U35" s="27">
         <v>9</v>
+      </c>
+      <c r="V35" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" s="27">
+        <v>6</v>
       </c>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
@@ -1733,7 +1996,11 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="10"/>
     </row>
-    <row r="36" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -1746,16 +2013,18 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
-      <c r="U36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="V36" t="s">
-        <v>10</v>
+      <c r="U36" s="27">
+        <v>9</v>
+      </c>
+      <c r="V36" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="27">
+        <v>2</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -1774,29 +2043,35 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="10"/>
     </row>
-    <row r="37" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="U37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="V37" t="s">
-        <v>8</v>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="U37" s="27">
+        <v>10</v>
+      </c>
+      <c r="V37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W37" s="27">
+        <v>12</v>
       </c>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
@@ -1815,29 +2090,35 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="10"/>
     </row>
-    <row r="38" spans="4:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="U38" s="27">
+        <v>10</v>
+      </c>
+      <c r="V38" s="30" t="s">
         <v>9</v>
+      </c>
+      <c r="W38" s="27">
+        <v>2</v>
       </c>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
@@ -1856,13 +2137,35 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U39">
+    <row r="39" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C39">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="V39" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="U39" s="27">
+        <v>10</v>
+      </c>
+      <c r="V39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W39" s="27">
+        <v>2</v>
       </c>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
@@ -1881,49 +2184,1916 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
     </row>
-    <row r="40" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U40">
+    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C40">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="U40" s="27">
+        <v>11</v>
+      </c>
+      <c r="V40" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W40" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U41" s="27">
+        <v>11</v>
+      </c>
+      <c r="V41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U42" s="27">
+        <v>11</v>
+      </c>
+      <c r="V42" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U43" s="27">
+        <v>12</v>
+      </c>
+      <c r="V43" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U44" s="27">
+        <v>13</v>
+      </c>
+      <c r="V44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U45" s="27">
+        <v>14</v>
+      </c>
+      <c r="V45" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U46" s="27">
+        <v>14</v>
+      </c>
+      <c r="V46" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U47" s="27">
+        <v>15</v>
+      </c>
+      <c r="V47" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD47" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF47" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI47" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK47" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U48" s="27">
+        <v>15</v>
+      </c>
+      <c r="V48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48" s="27">
+        <v>14</v>
+      </c>
+      <c r="Y48" s="32">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB48" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="41">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AE48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG48" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI48" s="41">
+        <f>AD70+1</f>
+        <v>24</v>
+      </c>
+      <c r="AJ48" s="47">
+        <v>7</v>
+      </c>
+      <c r="AK48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL48" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="Y49" s="32">
+        <f>Y48+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="41">
+        <f>AD48+1</f>
+        <v>2</v>
+      </c>
+      <c r="AE49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG49" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI49" s="41">
+        <f>AI48+1</f>
+        <v>25</v>
+      </c>
+      <c r="AJ49" s="47">
+        <v>7</v>
+      </c>
+      <c r="AK49" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL49" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="Y50" s="32">
+        <f t="shared" ref="Y50:Y70" si="1">Y49+1</f>
+        <v>3</v>
+      </c>
+      <c r="Z50" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB50" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD50" s="41">
+        <f t="shared" ref="AD50:AD93" si="2">AD49+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE50" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG50" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI50" s="41">
+        <f>AI49+1</f>
+        <v>26</v>
+      </c>
+      <c r="AJ50" s="47">
+        <v>7</v>
+      </c>
+      <c r="AK50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL50" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="Y51" s="32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z51" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE51" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG51" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI51" s="41">
+        <f>AI50+1</f>
+        <v>27</v>
+      </c>
+      <c r="AJ51" s="47">
+        <v>7</v>
+      </c>
+      <c r="AK51" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL51" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="Y52" s="32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z52" s="32">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB52" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AE52" s="32">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG52" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI52" s="41">
+        <f>AI51+1</f>
+        <v>28</v>
+      </c>
+      <c r="AJ52" s="47">
+        <v>7</v>
+      </c>
+      <c r="AK52" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL52" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J53" s="27"/>
+      <c r="K53" s="27">
+        <f>64*3</f>
+        <v>192</v>
+      </c>
+      <c r="L53" s="27"/>
+      <c r="Y53" s="32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Z53" s="32">
+        <v>2</v>
+      </c>
+      <c r="AA53" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB53" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="41">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AE53" s="32">
+        <v>2</v>
+      </c>
+      <c r="AF53" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG53" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI53" s="41">
+        <f>AI52+1</f>
+        <v>29</v>
+      </c>
+      <c r="AJ53" s="32">
+        <v>8</v>
+      </c>
+      <c r="AK53" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL53" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="Y54" s="32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z54" s="32">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB54" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="41">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AE54" s="32">
+        <v>3</v>
+      </c>
+      <c r="AF54" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG54" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI54" s="41">
+        <f>AI53+1</f>
+        <v>30</v>
+      </c>
+      <c r="AJ54" s="32">
+        <v>8</v>
+      </c>
+      <c r="AK54" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL54" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J55" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z55" s="32">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB55" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="41">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AE55" s="32">
+        <v>3</v>
+      </c>
+      <c r="AF55" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG55" s="32">
+        <v>8</v>
+      </c>
+      <c r="AI55" s="41">
+        <f>AI54+1</f>
+        <v>31</v>
+      </c>
+      <c r="AJ55" s="32">
+        <v>8</v>
+      </c>
+      <c r="AK55" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL55" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J56" s="27">
+        <f>J55+1</f>
+        <v>2</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Z56" s="32">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB56" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="41">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AE56" s="47">
+        <v>4</v>
+      </c>
+      <c r="AF56" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG56" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI56" s="41">
+        <f>AI55+1</f>
+        <v>32</v>
+      </c>
+      <c r="AJ56" s="32">
+        <v>9</v>
+      </c>
+      <c r="AK56" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL56" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J57" s="27">
+        <f t="shared" ref="J57:J118" si="3">J56+1</f>
+        <v>3</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z57" s="32">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB57" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="41">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE57" s="47">
+        <v>4</v>
+      </c>
+      <c r="AF57" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG57" s="47">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="41">
+        <f>AI56+1</f>
+        <v>33</v>
+      </c>
+      <c r="AJ57" s="32">
+        <v>9</v>
+      </c>
+      <c r="AK57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL57" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J58" s="27">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Z58" s="32">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB58" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD58" s="41">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AE58" s="47">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG58" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI58" s="41">
+        <f>AI57+1</f>
+        <v>34</v>
+      </c>
+      <c r="AJ58" s="32">
+        <v>9</v>
+      </c>
+      <c r="AK58" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL58" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J59" s="27">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Z59" s="32">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB59" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="41">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AE59" s="47">
+        <v>4</v>
+      </c>
+      <c r="AF59" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG59" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI59" s="41">
+        <f>AI58+1</f>
+        <v>35</v>
+      </c>
+      <c r="AJ59" s="32">
+        <v>10</v>
+      </c>
+      <c r="AK59" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL59" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J60" s="27">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="32">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Z60" s="32">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB60" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD60" s="41">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AE60" s="47">
+        <v>4</v>
+      </c>
+      <c r="AF60" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG60" s="47">
+        <v>6</v>
+      </c>
+      <c r="AI60" s="41">
+        <f>AI59+1</f>
+        <v>36</v>
+      </c>
+      <c r="AJ60" s="32">
+        <v>10</v>
+      </c>
+      <c r="AK60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL60" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J61" s="27">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="32">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Z61" s="32">
+        <v>3</v>
+      </c>
+      <c r="AA61" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD61" s="41">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AE61" s="47">
+        <v>5</v>
+      </c>
+      <c r="AF61" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG61" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI61" s="41">
+        <f>AI60+1</f>
+        <v>37</v>
+      </c>
+      <c r="AJ61" s="32">
+        <v>10</v>
+      </c>
+      <c r="AK61" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL61" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J62" s="27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Z62" s="32">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="41">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AE62" s="47">
+        <v>5</v>
+      </c>
+      <c r="AF62" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG62" s="47">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="41">
+        <f>AI61+1</f>
         <v>38</v>
       </c>
-      <c r="V40" t="s">
+      <c r="AJ62" s="32">
+        <v>11</v>
+      </c>
+      <c r="AK62" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL62" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J63" s="27">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U41">
-        <f>U40+1</f>
+      <c r="K63" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="32">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Z63" s="32">
+        <v>4</v>
+      </c>
+      <c r="AA63" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB63" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD63" s="41">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AE63" s="47">
+        <v>5</v>
+      </c>
+      <c r="AF63" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG63" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI63" s="41">
+        <f>AI62+1</f>
         <v>39</v>
       </c>
-      <c r="V41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U42">
-        <f>U41+1</f>
+      <c r="AJ63" s="32">
+        <v>11</v>
+      </c>
+      <c r="AK63" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL63" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J64" s="27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y64" s="32">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Z64" s="32">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB64" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="41">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AE64" s="47">
+        <v>5</v>
+      </c>
+      <c r="AF64" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG64" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI64" s="41">
+        <f>AI63+1</f>
         <v>40</v>
       </c>
-      <c r="V42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U43">
-        <f t="shared" ref="U43:U44" si="1">U42+1</f>
+      <c r="AJ64" s="32">
+        <v>11</v>
+      </c>
+      <c r="AK64" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL64" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J65" s="27">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y65" s="32">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Z65" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA65" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB65" s="32">
+        <v>6</v>
+      </c>
+      <c r="AD65" s="41">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AE65" s="47">
+        <v>5</v>
+      </c>
+      <c r="AF65" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG65" s="47">
+        <v>6</v>
+      </c>
+      <c r="AI65" s="41">
+        <f>AI64+1</f>
         <v>41</v>
       </c>
-      <c r="V43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="U44">
+      <c r="AJ65" s="32">
+        <v>12</v>
+      </c>
+      <c r="AK65" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL65" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J66" s="27">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y66" s="32">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Z66" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB66" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="41">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AE66" s="47">
+        <v>6</v>
+      </c>
+      <c r="AF66" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG66" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI66" s="41">
+        <f>AI65+1</f>
         <v>42</v>
       </c>
-      <c r="V44" t="s">
-        <v>10</v>
+      <c r="AJ66" s="32">
+        <v>13</v>
+      </c>
+      <c r="AK66" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL66" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J67" s="27">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Z67" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA67" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB67" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="41">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AE67" s="47">
+        <v>6</v>
+      </c>
+      <c r="AF67" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG67" s="47">
+        <v>4</v>
+      </c>
+      <c r="AI67" s="41">
+        <f>AI66+1</f>
+        <v>43</v>
+      </c>
+      <c r="AJ67" s="32">
+        <v>14</v>
+      </c>
+      <c r="AK67" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL67" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J68" s="27">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="32">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Z68" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA68" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB68" s="32">
+        <v>8</v>
+      </c>
+      <c r="AD68" s="41">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="AE68" s="47">
+        <v>6</v>
+      </c>
+      <c r="AF68" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG68" s="47">
+        <v>2</v>
+      </c>
+      <c r="AI68" s="41">
+        <f>AI67+1</f>
+        <v>44</v>
+      </c>
+      <c r="AJ68" s="32">
+        <v>14</v>
+      </c>
+      <c r="AK68" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL68" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J69" s="27">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y69" s="32">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="Z69" s="32">
+        <f>Z68+1</f>
+        <v>7</v>
+      </c>
+      <c r="AA69" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB69" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="41">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AE69" s="47">
+        <v>6</v>
+      </c>
+      <c r="AF69" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG69" s="47">
+        <v>4</v>
+      </c>
+      <c r="AI69" s="41">
+        <f>AI68+1</f>
+        <v>45</v>
+      </c>
+      <c r="AJ69" s="32">
+        <v>15</v>
+      </c>
+      <c r="AK69" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL69" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J70" s="27">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y70" s="32">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Z70" s="32">
+        <v>7</v>
+      </c>
+      <c r="AA70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB70" s="32">
+        <v>7</v>
+      </c>
+      <c r="AD70" s="41">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="AE70" s="47">
+        <v>6</v>
+      </c>
+      <c r="AF70" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG70" s="47">
+        <v>4</v>
+      </c>
+      <c r="AI70" s="41">
+        <f>AI69+1</f>
+        <v>46</v>
+      </c>
+      <c r="AJ70" s="32">
+        <v>15</v>
+      </c>
+      <c r="AK70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL70" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J71" s="27">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="10:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="27">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB72" s="42">
+        <f>Y70*3</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="10:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="27">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL73" s="42">
+        <f>AI70*3</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="10:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="27">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J75" s="27">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J76" s="27">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J77" s="27">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J78" s="27">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J79" s="27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="10:38" x14ac:dyDescent="0.2">
+      <c r="J80" s="27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J81" s="27">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J82" s="27">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J83" s="27">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J84" s="27">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J85" s="27">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J86" s="27">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K86" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J87" s="27">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L87" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J88" s="27">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L88" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J89" s="27">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J90" s="27">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J91" s="27">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J92" s="27">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="K92" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J93" s="27">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J94" s="27">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K94" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J95" s="27">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K95" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L95" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J96" s="27">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="K96" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L96" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J97" s="27">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="K97" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J98" s="27">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="K98" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J99" s="27">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="K99" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L99" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J100" s="27">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="K100" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J101" s="27">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="K101" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J102" s="27">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="K102" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J103" s="27">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="K103" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J104" s="27">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="K104" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J105" s="27">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="K105" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L105" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J106" s="27">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="K106" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L106" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J107" s="27">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="K107" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L107" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J108" s="27">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="K108" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J109" s="27">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="K109" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L109" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="27">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K110" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L110" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J111" s="27">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="K111" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L111" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J112" s="27">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="K112" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J113" s="27">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="K113" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J114" s="27">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K114" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L114" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J115" s="27">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="K115" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J116" s="27">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="K116" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L116" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J117" s="27">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="K117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J118" s="27">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="K118" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="27">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
